--- a/biology/Histoire de la zoologie et de la botanique/František_Moravec_(parasitologiste)/František_Moravec_(parasitologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/František_Moravec_(parasitologiste)/František_Moravec_(parasitologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franti%C5%A1ek_Moravec_(parasitologiste)</t>
+          <t>František_Moravec_(parasitologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">František Moravec (né en 1939), dit Frank, est un parasitologiste tchèque spécialiste des nématodes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Franti%C5%A1ek_Moravec_(parasitologiste)</t>
+          <t>František_Moravec_(parasitologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moravec nait le 1er janvier 1939 à Velká Bystřice. Il fait son enseignement secondaire à Olomouc puis ses études supérieures à Brno, dans la faculté d'histoire naturelle de l'université Masaryk. Pour son travail de maîtrise qu'il finit en 1962, il étudie les vers parasites de reptiles de Tchécoslovaquie. Diplômé, il s'associe à l'Institut de Parasitologie de l'actuelle Académie tchèque des sciences (alors encore tchécoslovaque), situé à České Budějovice, et défend en 1970 sa thèse dédiée aux nématodes parasitant les poissons. Il s'intéresse aux aspects taxinomiques, morphologiques, biologiques et écologiques des nématodes, domaine où il fait autorité mondialement[1].
-Parmi les travaux les plus importants de Moravec, Tomáš Scholz relève en 1996 la révision des genres Rhabdochona et Anguillicola, mais aussi sa révision de la famille des Capillariidae, famille à l'histoire systématique agitée, pour laquelle Moravec propose l'éclatement du taxon poubelle (« fourre-tout » taxonomique) Capillaria et le réarrangement en 14 genres fondés sur des critères morphologiques fiables[1]. En 2001, Moravec propose une nouvelle révision, avec 22 genres de Capillariidae[2]. En 1994, Moravec publie un ouvrage de près de 500 pages, Parasitic nematodes of freshwater fishes of Europe, considéré comme une « contribution significative » à l'étude des parasites de poissons[1],[3].
-En 1996, Scholz rapporte que Moravec a publié près de 270 travaux. Moravec est décrit comme investi et efficace dans sa recherche. Il est récipiendaire de plusieurs prix, et fait partie du comité éditorial de plusieurs journaux scientifiques comme Folia Parasitologica, Helminthologia, Acta Societatis Zoologicae Bohemicae, Acta Parasitologica[1] et Parasite[4]. En 2015, il a publié au moins 350 ouvrages scientifiques, dont onze livres[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moravec nait le 1er janvier 1939 à Velká Bystřice. Il fait son enseignement secondaire à Olomouc puis ses études supérieures à Brno, dans la faculté d'histoire naturelle de l'université Masaryk. Pour son travail de maîtrise qu'il finit en 1962, il étudie les vers parasites de reptiles de Tchécoslovaquie. Diplômé, il s'associe à l'Institut de Parasitologie de l'actuelle Académie tchèque des sciences (alors encore tchécoslovaque), situé à České Budějovice, et défend en 1970 sa thèse dédiée aux nématodes parasitant les poissons. Il s'intéresse aux aspects taxinomiques, morphologiques, biologiques et écologiques des nématodes, domaine où il fait autorité mondialement.
+Parmi les travaux les plus importants de Moravec, Tomáš Scholz relève en 1996 la révision des genres Rhabdochona et Anguillicola, mais aussi sa révision de la famille des Capillariidae, famille à l'histoire systématique agitée, pour laquelle Moravec propose l'éclatement du taxon poubelle (« fourre-tout » taxonomique) Capillaria et le réarrangement en 14 genres fondés sur des critères morphologiques fiables. En 2001, Moravec propose une nouvelle révision, avec 22 genres de Capillariidae. En 1994, Moravec publie un ouvrage de près de 500 pages, Parasitic nematodes of freshwater fishes of Europe, considéré comme une « contribution significative » à l'étude des parasites de poissons,.
+En 1996, Scholz rapporte que Moravec a publié près de 270 travaux. Moravec est décrit comme investi et efficace dans sa recherche. Il est récipiendaire de plusieurs prix, et fait partie du comité éditorial de plusieurs journaux scientifiques comme Folia Parasitologica, Helminthologia, Acta Societatis Zoologicae Bohemicae, Acta Parasitologica et Parasite. En 2015, il a publié au moins 350 ouvrages scientifiques, dont onze livres.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Franti%C5%A1ek_Moravec_(parasitologiste)</t>
+          <t>František_Moravec_(parasitologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux taxons de parasites ont été nommés en l'honneur de František Moravec par les parasitologistes de tous pays, en particulier deux genres de Nématodes, Moravecia Ribu &amp; Lester, 2004[6] et Moravecnema Justine, Cassone &amp; Petter, 2002[7], et des espèces de Nématodes comme Aonchotheca moraveci Esteban, Mas-Coma, Oltra-Ferrero &amp; Botella, 1991[8], Camallanus moraveci Petter, Cassone &amp; France, 1974, Dichelyne moraveci Petter, 1995[9], Freitascapillaria moraveci Caspeta-Mandujano, Salgado-Maldonado &amp; Vazquez, 2009[10], Huffmanela moraveci Carballo &amp; Navone, 2007[11], Oswaldocruzia moraveci Ben Slimane &amp; Durette-Desset, 1995, Philometroides moraveci Vismanis &amp; Yunchis, 1994, Pseudocapillaria moraveci Iglesias, Centeno, Garcia &amp; Garcia-Estevez, 2013[12], Pterothominx moraveci Baruš, Kajerová &amp; Koubková, 2005[13], Royandersonia moraveci (Anderson &amp; Lim, 1996), Spinitectus moraveci Boomker &amp; Puylaert, 1994[14], Goezia moraveci De &amp; Dey, 1992 [15] et Raphidascaroides moraveci Pereira, Tavares, Scholz &amp; Luque, 2015 [16], des espèces de monogènes comme Gyrodactylus moraveci Ergens, 1979 et Kritskyia moraveci Kohn, 1990[17], et de digènes comme Homalometron moraveci Bray, Justine &amp; Cribb, 2007[18].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux taxons de parasites ont été nommés en l'honneur de František Moravec par les parasitologistes de tous pays, en particulier deux genres de Nématodes, Moravecia Ribu &amp; Lester, 2004 et Moravecnema Justine, Cassone &amp; Petter, 2002, et des espèces de Nématodes comme Aonchotheca moraveci Esteban, Mas-Coma, Oltra-Ferrero &amp; Botella, 1991, Camallanus moraveci Petter, Cassone &amp; France, 1974, Dichelyne moraveci Petter, 1995, Freitascapillaria moraveci Caspeta-Mandujano, Salgado-Maldonado &amp; Vazquez, 2009, Huffmanela moraveci Carballo &amp; Navone, 2007, Oswaldocruzia moraveci Ben Slimane &amp; Durette-Desset, 1995, Philometroides moraveci Vismanis &amp; Yunchis, 1994, Pseudocapillaria moraveci Iglesias, Centeno, Garcia &amp; Garcia-Estevez, 2013, Pterothominx moraveci Baruš, Kajerová &amp; Koubková, 2005, Royandersonia moraveci (Anderson &amp; Lim, 1996), Spinitectus moraveci Boomker &amp; Puylaert, 1994, Goezia moraveci De &amp; Dey, 1992  et Raphidascaroides moraveci Pereira, Tavares, Scholz &amp; Luque, 2015 , des espèces de monogènes comme Gyrodactylus moraveci Ergens, 1979 et Kritskyia moraveci Kohn, 1990, et de digènes comme Homalometron moraveci Bray, Justine &amp; Cribb, 2007.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Franti%C5%A1ek_Moravec_(parasitologiste)</t>
+          <t>František_Moravec_(parasitologiste)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publications majeures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Onze livres :
 (en) František Moravec, Reconstruction of the nematode genus Rhabdochona Railliet, 1916 with a review of the species parasitic in fishes of Europe and Asia. Studie ČSAV, Prague, Academia, 1975, 104 p.
